--- a/biology/Zoologie/Carebara/Carebara.xlsx
+++ b/biology/Zoologie/Carebara/Carebara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carebara lignata
 Carebara est un genre de fourmis de la sous-famille des Myrmicinae et de la famille des Formicidae.
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est l'un des plus grands genres de myrmicinae avec plus de 174 espèces réparties dans le monde entier dans les tropiques et la région afrotropicale. Beaucoup d'entre eux sont de très petits habitants du sol cryptique et de la litière de feuilles. Ils nichent dans du bois pourri auquel l'écorce adhère encore dans la région afrotropicale, ou peuvent être commensaux[note 1] nichant à proximité d'autres espèces de fourmis. Certaines espèces sont connues pour exister de manière parasitaire dans les nids de termites. On sait peu de choses sur la biologie de l'espèce. Cependant, ils se distinguent par la grande différence de taille entre les reines et les ouvrières[2],[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est l'un des plus grands genres de myrmicinae avec plus de 174 espèces réparties dans le monde entier dans les tropiques et la région afrotropicale. Beaucoup d'entre eux sont de très petits habitants du sol cryptique et de la litière de feuilles. Ils nichent dans du bois pourri auquel l'écorce adhère encore dans la région afrotropicale, ou peuvent être commensaux[note 1] nichant à proximité d'autres espèces de fourmis. Certaines espèces sont connues pour exister de manière parasitaire dans les nids de termites. On sait peu de choses sur la biologie de l'espèce. Cependant, ils se distinguent par la grande différence de taille entre les reines et les ouvrières,. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Espèces de Carebara</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Carebara aborensis (Wheeler, 1913)
@@ -715,7 +731,43 @@
 Carebara wheeleri (Ettershank, 1966)
 Carebara wroughtonii (Forel, 1902)
 Carebara yamatonis (Terayama, 1996)
-Espèces fossiles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carebara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carebara</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces de Carebara</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 †Carebara antiqua (Mayr, 1868)
 †Carebara bohemica (Novák, 1877)
 †Carebara groehni 
@@ -725,7 +777,7 @@
 †Carebara schossnicensis 
 †Carebara sophiae (Emery, 1891)
 †Carebara thorali (Théobald, 1937)
-†Carebara ucrainica (Dlussky &amp; Perkovsky, 2002)[1]
+†Carebara ucrainica (Dlussky &amp; Perkovsky, 2002)
 </t>
         </is>
       </c>
